--- a/src/test/testdaten_insert_arbeitslosenversicherungsbeitraege/Arbeitslosenversicherungsbeitraege.xlsx
+++ b/src/test/testdaten_insert_arbeitslosenversicherungsbeitraege/Arbeitslosenversicherungsbeitraege.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxfr\PycharmProjects\Personalstammdatenbank\src\main\insert Sozialversicherungsdaten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxfr\PycharmProjects\Personalstammdatenbank\src\test\testdaten_insert_arbeitslosenversicherungsbeitraege\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E0AF27-8300-4DCA-AE80-19F79AE44502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A56D0EB-88FB-4541-B065-A53B0FC01426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4992" yWindow="1728" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -379,9 +379,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>

--- a/src/test/testdaten_insert_arbeitslosenversicherungsbeitraege/Arbeitslosenversicherungsbeitraege.xlsx
+++ b/src/test/testdaten_insert_arbeitslosenversicherungsbeitraege/Arbeitslosenversicherungsbeitraege.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxfr\PycharmProjects\Personalstammdatenbank\src\test\testdaten_insert_arbeitslosenversicherungsbeitraege\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A56D0EB-88FB-4541-B065-A53B0FC01426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41CD77E-069B-4D9E-BAFE-4045EF7D9985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4992" yWindow="1728" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -39,16 +39,16 @@
     <t>Arbeitgeberbeitrag gesetzliche Arbeitslosenversicherung in Prozent</t>
   </si>
   <si>
+    <t>Eintragungsdatum</t>
+  </si>
+  <si>
+    <t>15.12.2023</t>
+  </si>
+  <si>
     <t>Beitragsbemessungsgrenze AV Ost</t>
   </si>
   <si>
     <t>Beitragsbemessungsgrenze AV West</t>
-  </si>
-  <si>
-    <t>Eintragungsdatum</t>
-  </si>
-  <si>
-    <t>15.12.2023</t>
   </si>
 </sst>
 </file>
@@ -379,7 +379,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -413,7 +415,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2">
         <v>57846.12</v>
@@ -421,7 +423,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2">
         <v>60000</v>
@@ -429,10 +431,10 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/testdaten_insert_arbeitslosenversicherungsbeitraege/Arbeitslosenversicherungsbeitraege.xlsx
+++ b/src/test/testdaten_insert_arbeitslosenversicherungsbeitraege/Arbeitslosenversicherungsbeitraege.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxfr\PycharmProjects\Personalstammdatenbank\src\test\testdaten_insert_arbeitslosenversicherungsbeitraege\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41CD77E-069B-4D9E-BAFE-4045EF7D9985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4AEA137-B3E7-4A99-8AAC-F7CA01B0909B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35925" yWindow="2190" windowWidth="17280" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -42,13 +42,13 @@
     <t>Eintragungsdatum</t>
   </si>
   <si>
-    <t>15.12.2023</t>
-  </si>
-  <si>
     <t>Beitragsbemessungsgrenze AV Ost</t>
   </si>
   <si>
     <t>Beitragsbemessungsgrenze AV West</t>
+  </si>
+  <si>
+    <t>01.01.2024</t>
   </si>
 </sst>
 </file>
@@ -380,7 +380,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -402,7 +402,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>3</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -410,23 +410,23 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>3</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2">
-        <v>57846.12</v>
+        <v>90600</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2">
-        <v>60000</v>
+        <v>89400</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -434,7 +434,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
